--- a/src/main/resources/excel/hanguo.xlsx
+++ b/src/main/resources/excel/hanguo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,6 +110,19 @@
   </si>
   <si>
     <t>10.20.130.62</t>
+  </si>
+  <si>
+    <t>gaoye</t>
+  </si>
+  <si>
+    <t>baseServerId</t>
+  </si>
+  <si>
+    <t>isRedis</t>
+  </si>
+  <si>
+    <t>redisLocalPortAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -504,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D13"/>
+      <selection activeCell="I2" sqref="I2:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -515,9 +528,11 @@
     <col min="1" max="1" width="44.375" customWidth="1"/>
     <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -533,8 +548,20 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -547,8 +574,20 @@
       <c r="D2">
         <v>37500</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -561,8 +600,20 @@
       <c r="D3">
         <v>37501</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -575,8 +626,20 @@
       <c r="D4">
         <v>37502</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -589,8 +652,20 @@
       <c r="D5">
         <v>37503</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -603,8 +678,20 @@
       <c r="D6">
         <v>37504</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -617,8 +704,20 @@
       <c r="D7">
         <v>37505</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -631,8 +730,20 @@
       <c r="D8">
         <v>37506</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -645,8 +756,20 @@
       <c r="D9">
         <v>37507</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -659,8 +782,20 @@
       <c r="D10">
         <v>37508</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -673,8 +808,20 @@
       <c r="D11">
         <v>37509</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -687,8 +834,20 @@
       <c r="D12">
         <v>37510</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
@@ -700,6 +859,18 @@
       </c>
       <c r="D13">
         <v>37511</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
